--- a/診断者_体重入力画面_エビデンス.xlsx
+++ b/診断者_体重入力画面_エビデンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d800a10fdc61dec0/デスクトップ/各種資料/受託案件関連/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1176" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61DF206D-D2FB-4916-B080-B841A581DB8B}"/>
+  <xr:revisionPtr revIDLastSave="1178" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551A2210-F316-422A-80A3-BE69F2BB8AE3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="728" xr2:uid="{40BD3F05-1583-483D-916D-49B5A9F9D35B}"/>
   </bookViews>
@@ -961,6 +961,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,10 +979,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -986,9 +989,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6165,6 +6165,116 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>21971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777FE608-3DFB-45FD-896D-EB83F2EAD9EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="56626125"/>
+          <a:ext cx="5810249" cy="4855909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24111E82-BE73-4B89-8762-A8722DD2116B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1365251" y="54943375"/>
+          <a:ext cx="1508126" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8677,6 +8787,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9000,51 +9114,51 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9075,51 +9189,51 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
@@ -9166,81 +9280,81 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5" t="s">
@@ -9369,71 +9483,71 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
@@ -9457,19 +9571,19 @@
       <c r="H12" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G15" s="16"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="G16" s="16"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G17" s="16"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G18" s="16"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G19" s="16"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="10" t="s">
@@ -9526,51 +9640,51 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="6" t="s">

--- a/診断者_体重入力画面_エビデンス.xlsx
+++ b/診断者_体重入力画面_エビデンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d800a10fdc61dec0/デスクトップ/各種資料/受託案件関連/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1178" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{551A2210-F316-422A-80A3-BE69F2BB8AE3}"/>
+  <xr:revisionPtr revIDLastSave="1181" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D92426D-6F87-4FFA-9DAF-CA60601F341B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="728" xr2:uid="{40BD3F05-1583-483D-916D-49B5A9F9D35B}"/>
   </bookViews>
@@ -6291,16 +6291,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>15876</xdr:colOff>
       <xdr:row>317</xdr:row>
-      <xdr:rowOff>106913</xdr:rowOff>
+      <xdr:rowOff>36007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBEFD8E-3A98-C607-E659-52EABBB1BD9B}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CF623C-9699-CB06-ACC2-4C5F202E91F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6317,7 +6317,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269876" y="69961126"/>
-          <a:ext cx="5810249" cy="4940850"/>
+          <a:ext cx="5810250" cy="4869944"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8657,15 +8657,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>849312</xdr:colOff>
+      <xdr:colOff>1031874</xdr:colOff>
       <xdr:row>304</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>269875</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>305</xdr:row>
-      <xdr:rowOff>198437</xdr:rowOff>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8680,8 +8680,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2055812" y="71905812"/>
-          <a:ext cx="1849438" cy="325438"/>
+          <a:off x="2238374" y="71866124"/>
+          <a:ext cx="1460501" cy="341313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/診断者_体重入力画面_エビデンス.xlsx
+++ b/診断者_体重入力画面_エビデンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d800a10fdc61dec0/デスクトップ/各種資料/受託案件関連/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1181" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D92426D-6F87-4FFA-9DAF-CA60601F341B}"/>
+  <xr:revisionPtr revIDLastSave="1202" documentId="8_{3D92C42B-9D2C-403B-8225-B1D0279B847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBC26409-BD20-4FA0-974C-FFAA7C8D384E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="728" xr2:uid="{40BD3F05-1583-483D-916D-49B5A9F9D35B}"/>
   </bookViews>
@@ -1414,22 +1414,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>524</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>467</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4373</xdr:colOff>
-      <xdr:row>546</xdr:row>
-      <xdr:rowOff>103189</xdr:rowOff>
+      <xdr:colOff>12301</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A003167-38B1-4237-9ABD-7007BF24A1AE}"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6572330-35E3-C874-B357-5850EC3D88CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,8 +1445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="120618251"/>
-          <a:ext cx="6076561" cy="5167313"/>
+          <a:off x="269876" y="107497563"/>
+          <a:ext cx="6084488" cy="5294312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1458,66 +1458,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>501</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4374</xdr:colOff>
-      <xdr:row>523</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94D6BF7-8991-4C06-813F-8269363C3217}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269876" y="115323938"/>
-          <a:ext cx="6076561" cy="5167313"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>467</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>489</xdr:row>
-      <xdr:rowOff>112970</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F957CD-D726-8F96-4A08-F0CC7CB6DC89}"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F63976-4D9B-780A-9C1E-5778DADA8E5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,8 +1489,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="107497564"/>
-          <a:ext cx="6088063" cy="5177094"/>
+          <a:off x="269875" y="61690250"/>
+          <a:ext cx="6088063" cy="5294313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,22 +1502,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>444</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7938</xdr:colOff>
-      <xdr:row>466</xdr:row>
-      <xdr:rowOff>106218</xdr:rowOff>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB83187-346D-FF04-F375-D21DEBC84BF6}"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEF672C-922E-A47D-ACC6-74626E2D320E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,8 +1533,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269877" y="102203250"/>
-          <a:ext cx="6080124" cy="5170343"/>
+          <a:off x="269875" y="29464000"/>
+          <a:ext cx="6080125" cy="5310188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1591,21 +1547,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>420</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>524</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>4373</xdr:colOff>
-      <xdr:row>442</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>103189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92133A0F-52D9-89C9-B0E3-22C9A60AFD83}"/>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A003167-38B1-4237-9ABD-7007BF24A1AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1577,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="96678750"/>
+          <a:off x="269875" y="120618251"/>
           <a:ext cx="6076561" cy="5167313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1634,22 +1590,66 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>397</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>501</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>419</xdr:row>
-      <xdr:rowOff>106220</xdr:rowOff>
+      <xdr:colOff>4374</xdr:colOff>
+      <xdr:row>523</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16AF19C-72CC-B8D9-01E4-9E4ACE4B337A}"/>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94D6BF7-8991-4C06-813F-8269363C3217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269876" y="115323938"/>
+          <a:ext cx="6076561" cy="5167313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>466</xdr:row>
+      <xdr:rowOff>106218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB83187-346D-FF04-F375-D21DEBC84BF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,8 +1665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="91384439"/>
-          <a:ext cx="6080125" cy="5170344"/>
+          <a:off x="269877" y="102203250"/>
+          <a:ext cx="6080124" cy="5170343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1678,22 +1678,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>373</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>4373</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>442</xdr:row>
       <xdr:rowOff>103188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1D6535-9187-63D5-6F19-B6416A11E6C1}"/>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92133A0F-52D9-89C9-B0E3-22C9A60AFD83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,8 +1709,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="85859939"/>
-          <a:ext cx="6076560" cy="5167312"/>
+          <a:off x="269875" y="96678750"/>
+          <a:ext cx="6076561" cy="5167313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1722,22 +1722,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>350</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>372</xdr:row>
-      <xdr:rowOff>106218</xdr:rowOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>106220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467E8F05-BDCF-F43C-8FEB-A5C8AE8DB15D}"/>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16AF19C-72CC-B8D9-01E4-9E4ACE4B337A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,8 +1753,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="80565625"/>
-          <a:ext cx="6080124" cy="5170343"/>
+          <a:off x="269875" y="91384439"/>
+          <a:ext cx="6080125" cy="5170344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1767,21 +1767,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>23041</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>4373</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886E4949-B892-C197-3FBC-EEA2A14A21F9}"/>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1D6535-9187-63D5-6F19-B6416A11E6C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,8 +1797,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="40282813"/>
-          <a:ext cx="6095228" cy="5183187"/>
+          <a:off x="269876" y="85859939"/>
+          <a:ext cx="6076560" cy="5167312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1810,110 +1810,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4373</xdr:colOff>
-      <xdr:row>347</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>106218</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D55654-D51A-4283-816B-F959A9E0EDD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269875" y="74810938"/>
-          <a:ext cx="6076561" cy="5167313"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>302</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4374</xdr:colOff>
-      <xdr:row>324</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED9C67C6-5986-ACD0-5752-32F825BE0433}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="269876" y="69516625"/>
-          <a:ext cx="6076561" cy="5167313"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>268</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23043</xdr:colOff>
-      <xdr:row>290</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B01C028-8261-20E6-3AD9-792DC2224B55}"/>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467E8F05-BDCF-F43C-8FEB-A5C8AE8DB15D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,8 +1841,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="61690250"/>
-          <a:ext cx="6095230" cy="5183188"/>
+          <a:off x="269876" y="80565625"/>
+          <a:ext cx="6080124" cy="5170343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1943,21 +1855,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>119718</xdr:rowOff>
+      <xdr:colOff>23041</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C1CCED-93E6-3FCB-1CD6-501C7B663921}"/>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886E4949-B892-C197-3FBC-EEA2A14A21F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,8 +1885,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="56395938"/>
-          <a:ext cx="6096000" cy="5183843"/>
+          <a:off x="269876" y="40282813"/>
+          <a:ext cx="6095228" cy="5183187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1987,21 +1899,109 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>9782</xdr:rowOff>
+      <xdr:colOff>4373</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2EFA185-012B-E460-DFFA-574160562BC3}"/>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D55654-D51A-4283-816B-F959A9E0EDD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269875" y="74810938"/>
+          <a:ext cx="6076561" cy="5167313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4374</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED9C67C6-5986-ACD0-5752-32F825BE0433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="269876" y="69516625"/>
+          <a:ext cx="6076561" cy="5167313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>119718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C1CCED-93E6-3FCB-1CD6-501C7B663921}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,8 +2017,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="50998438"/>
-          <a:ext cx="6088063" cy="5177094"/>
+          <a:off x="269876" y="56395938"/>
+          <a:ext cx="6096000" cy="5183843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2031,21 +2031,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>99469</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>9782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88307B06-617E-69D8-974A-C062719F4609}"/>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2EFA185-012B-E460-DFFA-574160562BC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,8 +2061,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269875" y="45807313"/>
-          <a:ext cx="6072188" cy="5163594"/>
+          <a:off x="269875" y="50998438"/>
+          <a:ext cx="6088063" cy="5177094"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2074,22 +2074,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>112968</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>99469</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C0AF0D-16B2-FA8C-A2CC-9F12E56C6610}"/>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88307B06-617E-69D8-974A-C062719F4609}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,8 +2105,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="34988500"/>
-          <a:ext cx="6088062" cy="5177093"/>
+          <a:off x="269875" y="45807313"/>
+          <a:ext cx="6072188" cy="5163594"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2119,21 +2119,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>119718</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>112968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA459D1-C610-536C-8EBB-CAF16BCF0FE6}"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C0AF0D-16B2-FA8C-A2CC-9F12E56C6610}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,8 +2149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="269876" y="29464000"/>
-          <a:ext cx="6095999" cy="5183843"/>
+          <a:off x="269876" y="34988500"/>
+          <a:ext cx="6088062" cy="5177093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3365,138 +3365,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>214313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1143001</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84470944-2B50-4F62-984B-0BF4FAD85517}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2198688" y="31980188"/>
-          <a:ext cx="1643063" cy="420687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>396874</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="吹き出し: 四角形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E795DA1A-71AD-43B0-AFEA-A298C39E13C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5508624" y="30932438"/>
-          <a:ext cx="2444750" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -65588"/>
-            <a:gd name="adj2" fmla="val 26287"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>エラーメッセージが表示された</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>500063</xdr:colOff>
       <xdr:row>183</xdr:row>
@@ -3910,15 +3778,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>658812</xdr:colOff>
+      <xdr:colOff>706437</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>7935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>278</xdr:row>
-      <xdr:rowOff>214310</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3933,8 +3801,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2143125" y="64206435"/>
-          <a:ext cx="1746250" cy="420689"/>
+          <a:off x="2190750" y="63769873"/>
+          <a:ext cx="1936750" cy="285752"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3976,15 +3844,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>325437</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>341312</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>198437</xdr:rowOff>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3999,7 +3867,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5453062" y="63380937"/>
+          <a:off x="5715000" y="63285687"/>
           <a:ext cx="2444750" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -5086,16 +4954,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>341312</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>777873</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>174623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>150811</xdr:colOff>
       <xdr:row>477</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>785812</xdr:colOff>
-      <xdr:row>479</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5110,8 +4978,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3040062" y="109989936"/>
-          <a:ext cx="1658938" cy="444501"/>
+          <a:off x="2262186" y="109513686"/>
+          <a:ext cx="1801813" cy="428627"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5152,16 +5020,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>476</xdr:row>
-      <xdr:rowOff>111126</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1206498</xdr:colOff>
+      <xdr:row>474</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>777874</xdr:colOff>
-      <xdr:row>480</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>7936</xdr:colOff>
+      <xdr:row>477</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5176,7 +5044,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5889624" y="108759626"/>
+          <a:off x="5119686" y="109116813"/>
           <a:ext cx="2444750" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -5277,6 +5145,80 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>801687</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>817562</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34543658-46C6-4350-AB31-78926C9B3266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5929312" y="31400751"/>
+          <a:ext cx="2444750" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65588"/>
+            <a:gd name="adj2" fmla="val 26287"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>エラーメッセージが表示されず、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>次の画面に遷移した</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
